--- a/MySQL/하나마트/양식샘플-하나마트 테이블명세(2021-05-06).xlsx
+++ b/MySQL/하나마트/양식샘플-하나마트 테이블명세(2021-05-06).xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="매입매출장" sheetId="2" r:id="rId1"/>
     <sheet name="거래처원장" sheetId="3" r:id="rId2"/>
-    <sheet name="상품원장" sheetId="4" r:id="rId3"/>
+    <sheet name="상품원장 (2)" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="95">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -332,18 +332,6 @@
   </si>
   <si>
     <t>CHAR(6)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가변문자열</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>숫자형</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -743,7 +731,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
@@ -803,6 +791,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1126,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1783,23 +1774,23 @@
       <c r="C2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="26" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="27"/>
+      <c r="I2" s="28"/>
       <c r="J2" s="13">
         <v>44346</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="29"/>
+      <c r="L2" s="30"/>
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="14" t="s">
@@ -1808,36 +1799,36 @@
       <c r="C3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="30" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="30"/>
+      <c r="I3" s="31"/>
       <c r="J3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="33"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="24"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="17" t="s">
@@ -1885,13 +1876,13 @@
         <v>32</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>19</v>
@@ -1915,7 +1906,7 @@
         <v>39</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>47</v>
@@ -1940,7 +1931,7 @@
         <v>40</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>47</v>
@@ -1965,7 +1956,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>47</v>
@@ -1990,7 +1981,7 @@
         <v>42</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>47</v>
@@ -2015,7 +2006,7 @@
         <v>43</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>47</v>
@@ -2040,7 +2031,7 @@
         <v>44</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>47</v>
@@ -2065,7 +2056,7 @@
         <v>45</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>47</v>
@@ -2090,7 +2081,7 @@
         <v>46</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -2884,23 +2875,23 @@
       <c r="C2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="26" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="27"/>
+      <c r="I2" s="28"/>
       <c r="J2" s="13">
         <v>44322</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="29"/>
+      <c r="L2" s="30"/>
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="14" t="s">
@@ -2909,36 +2900,36 @@
       <c r="C3" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="30" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="30"/>
+      <c r="I3" s="31"/>
       <c r="J3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="33"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="24"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="17" t="s">
@@ -3014,7 +3005,7 @@
         <v>61</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>66</v>
@@ -3039,7 +3030,7 @@
         <v>62</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>67</v>
@@ -3064,7 +3055,7 @@
         <v>63</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -3087,7 +3078,7 @@
         <v>64</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -3284,8 +3275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3941,23 +3932,23 @@
       <c r="C2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="26" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="27"/>
+      <c r="I2" s="28"/>
       <c r="J2" s="13">
         <v>44322</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="29"/>
+      <c r="L2" s="30"/>
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="14" t="s">
@@ -3966,36 +3957,36 @@
       <c r="C3" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="30" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="30"/>
+      <c r="I3" s="31"/>
       <c r="J3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="33"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="24"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="17" t="s">
@@ -4065,13 +4056,13 @@
         <v>69</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>74</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>66</v>
@@ -4080,7 +4071,7 @@
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="21"/>
+      <c r="L7" s="22"/>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
@@ -4090,22 +4081,22 @@
         <v>70</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>75</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="21"/>
+      <c r="L8" s="22"/>
     </row>
     <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
@@ -4121,16 +4112,16 @@
         <v>76</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
-      <c r="L9" s="21"/>
+      <c r="L9" s="22"/>
     </row>
     <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
@@ -4140,22 +4131,22 @@
         <v>72</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>77</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="21"/>
+      <c r="L10" s="22"/>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
@@ -4170,7 +4161,7 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
-      <c r="L11" s="21"/>
+      <c r="L11" s="22"/>
     </row>
     <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
@@ -4185,7 +4176,7 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="21"/>
+      <c r="L12" s="22"/>
     </row>
     <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
@@ -4200,7 +4191,7 @@
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="21"/>
+      <c r="L13" s="22"/>
     </row>
     <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="6">
@@ -4215,7 +4206,7 @@
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
-      <c r="L14" s="21"/>
+      <c r="L14" s="22"/>
     </row>
     <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
@@ -4230,7 +4221,7 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
-      <c r="L15" s="21"/>
+      <c r="L15" s="22"/>
     </row>
     <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6">
@@ -4245,7 +4236,7 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="21"/>
+      <c r="L16" s="22"/>
     </row>
     <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6">
@@ -4260,7 +4251,7 @@
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
-      <c r="L17" s="21"/>
+      <c r="L17" s="22"/>
     </row>
     <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6">
@@ -4275,7 +4266,7 @@
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="21"/>
+      <c r="L18" s="22"/>
     </row>
     <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6">
@@ -4290,7 +4281,7 @@
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
-      <c r="L19" s="21"/>
+      <c r="L19" s="22"/>
     </row>
     <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6">
@@ -4305,7 +4296,7 @@
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
-      <c r="L20" s="21"/>
+      <c r="L20" s="22"/>
     </row>
     <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="9">
@@ -4324,12 +4315,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="K3:L3"/>
+    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
